--- a/medicine/Autisme/Coralie_Chevallier/Coralie_Chevallier.xlsx
+++ b/medicine/Autisme/Coralie_Chevallier/Coralie_Chevallier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Coralie Chevallier est une spécialiste française du comportement, psychologue et spécialiste des sciences sociales[pas clair]. Elle travaille sur l'autisme[1] et ses travaux actuels intègrent la psychologie, l'économie et les politiques publiques. Elle est professeur de sciences cognitives et comportementales à l'École normale supérieure[2] et directrice de recherche à l'Inserm, où elle dirige l'équipe Evolution et Cognition Sociale[3].
-Chevallier est également vice-présidente formation de l'Université PSL[4]. Dans ce rôle, Chevallier créé un programme interdisciplinaire de premier cycle appelé « Science pour un monde durable »[5]. Elle est membre de Terra Nova[6] et du conseil scientifique de l'Institut national du service public.
-En 2022, Coralie Chevallier reçoit l'Ordre national du Mérite[7].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Coralie Chevallier est une spécialiste française du comportement, psychologue et spécialiste des sciences sociales[pas clair]. Elle travaille sur l'autisme et ses travaux actuels intègrent la psychologie, l'économie et les politiques publiques. Elle est professeur de sciences cognitives et comportementales à l'École normale supérieure et directrice de recherche à l'Inserm, où elle dirige l'équipe Evolution et Cognition Sociale.
+Chevallier est également vice-présidente formation de l'Université PSL. Dans ce rôle, Chevallier créé un programme interdisciplinaire de premier cycle appelé « Science pour un monde durable ». Elle est membre de Terra Nova et du conseil scientifique de l'Institut national du service public.
+En 2022, Coralie Chevallier reçoit l'Ordre national du Mérite.
 </t>
         </is>
       </c>
@@ -513,7 +525,9 @@
           <t>Livre</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Chevallier, C. et Perona, M., Homo Sapiens dans la cité : mettre la psychologie au service des politiques publiques, Paris, Odile Jacob, 2022</t>
         </is>
